--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ackr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>121.638681081453</v>
+        <v>3.498267</v>
       </c>
       <c r="H2">
-        <v>121.638681081453</v>
+        <v>10.494801</v>
       </c>
       <c r="I2">
-        <v>0.9815341244405102</v>
+        <v>0.02652289550929144</v>
       </c>
       <c r="J2">
-        <v>0.9815341244405102</v>
+        <v>0.02652289550929144</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.221803199990388</v>
+        <v>0.2315733333333333</v>
       </c>
       <c r="N2">
-        <v>0.221803199990388</v>
+        <v>0.69472</v>
       </c>
       <c r="O2">
-        <v>0.2780507033262193</v>
+        <v>0.2371078251520917</v>
       </c>
       <c r="P2">
-        <v>0.2780507033262193</v>
+        <v>0.2371078251520917</v>
       </c>
       <c r="Q2">
-        <v>26.97984870647655</v>
+        <v>0.81010535008</v>
       </c>
       <c r="R2">
-        <v>26.97984870647655</v>
+        <v>7.290948150719999</v>
       </c>
       <c r="S2">
-        <v>0.2729162536393687</v>
+        <v>0.006288786070944273</v>
       </c>
       <c r="T2">
-        <v>0.2729162536393687</v>
+        <v>0.006288786070944273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>121.638681081453</v>
+        <v>3.498267</v>
       </c>
       <c r="H3">
-        <v>121.638681081453</v>
+        <v>10.494801</v>
       </c>
       <c r="I3">
-        <v>0.9815341244405102</v>
+        <v>0.02652289550929144</v>
       </c>
       <c r="J3">
-        <v>0.9815341244405102</v>
+        <v>0.02652289550929144</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.575904546607758</v>
+        <v>0.7200953333333334</v>
       </c>
       <c r="N3">
-        <v>0.575904546607758</v>
+        <v>2.160286</v>
       </c>
       <c r="O3">
-        <v>0.7219492966737807</v>
+        <v>0.7373052671097876</v>
       </c>
       <c r="P3">
-        <v>0.7219492966737807</v>
+        <v>0.7373052671097876</v>
       </c>
       <c r="Q3">
-        <v>70.05226947817987</v>
+        <v>2.519085741454</v>
       </c>
       <c r="R3">
-        <v>70.05226947817987</v>
+        <v>22.671771673086</v>
       </c>
       <c r="S3">
-        <v>0.7086178708011416</v>
+        <v>0.01955547055800311</v>
       </c>
       <c r="T3">
-        <v>0.7086178708011416</v>
+        <v>0.01955547055800311</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.350202218131077</v>
+        <v>3.498267</v>
       </c>
       <c r="H4">
-        <v>0.350202218131077</v>
+        <v>10.494801</v>
       </c>
       <c r="I4">
-        <v>0.002825872695218024</v>
+        <v>0.02652289550929144</v>
       </c>
       <c r="J4">
-        <v>0.002825872695218024</v>
+        <v>0.02652289550929144</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.221803199990388</v>
+        <v>0.02498966666666666</v>
       </c>
       <c r="N4">
-        <v>0.221803199990388</v>
+        <v>0.07496899999999999</v>
       </c>
       <c r="O4">
-        <v>0.2780507033262193</v>
+        <v>0.02558690773812063</v>
       </c>
       <c r="P4">
-        <v>0.2780507033262193</v>
+        <v>0.02558690773812063</v>
       </c>
       <c r="Q4">
-        <v>0.07767597262520476</v>
+        <v>0.08742052624099998</v>
       </c>
       <c r="R4">
-        <v>0.07767597262520476</v>
+        <v>0.7867847361689999</v>
       </c>
       <c r="S4">
-        <v>0.0007857358904157305</v>
+        <v>0.0006786388803440539</v>
       </c>
       <c r="T4">
-        <v>0.0007857358904157305</v>
+        <v>0.000678638880344054</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.350202218131077</v>
+        <v>122.458089</v>
       </c>
       <c r="H5">
-        <v>0.350202218131077</v>
+        <v>367.374267</v>
       </c>
       <c r="I5">
-        <v>0.002825872695218024</v>
+        <v>0.9284434546632696</v>
       </c>
       <c r="J5">
-        <v>0.002825872695218024</v>
+        <v>0.9284434546632696</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.575904546607758</v>
+        <v>0.2315733333333333</v>
       </c>
       <c r="N5">
-        <v>0.575904546607758</v>
+        <v>0.69472</v>
       </c>
       <c r="O5">
-        <v>0.7219492966737807</v>
+        <v>0.2371078251520917</v>
       </c>
       <c r="P5">
-        <v>0.7219492966737807</v>
+        <v>0.2371078251520917</v>
       </c>
       <c r="Q5">
-        <v>0.2016830496538091</v>
+        <v>28.35802786336</v>
       </c>
       <c r="R5">
-        <v>0.2016830496538091</v>
+        <v>255.22225077024</v>
       </c>
       <c r="S5">
-        <v>0.002040136804802294</v>
+        <v>0.2201412083119025</v>
       </c>
       <c r="T5">
-        <v>0.002040136804802294</v>
+        <v>0.2201412083119025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.93822025454751</v>
+        <v>122.458089</v>
       </c>
       <c r="H6">
-        <v>1.93822025454751</v>
+        <v>367.374267</v>
       </c>
       <c r="I6">
-        <v>0.01564000286427167</v>
+        <v>0.9284434546632696</v>
       </c>
       <c r="J6">
-        <v>0.01564000286427167</v>
+        <v>0.9284434546632696</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.221803199990388</v>
+        <v>0.7200953333333334</v>
       </c>
       <c r="N6">
-        <v>0.221803199990388</v>
+        <v>2.160286</v>
       </c>
       <c r="O6">
-        <v>0.2780507033262193</v>
+        <v>0.7373052671097876</v>
       </c>
       <c r="P6">
-        <v>0.2780507033262193</v>
+        <v>0.7373052671097876</v>
       </c>
       <c r="Q6">
-        <v>0.4299034547448221</v>
+        <v>88.18149841781802</v>
       </c>
       <c r="R6">
-        <v>0.4299034547448221</v>
+        <v>793.6334857603621</v>
       </c>
       <c r="S6">
-        <v>0.004348713796434822</v>
+        <v>0.6845462493368359</v>
       </c>
       <c r="T6">
-        <v>0.004348713796434822</v>
+        <v>0.6845462493368359</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>122.458089</v>
+      </c>
+      <c r="H7">
+        <v>367.374267</v>
+      </c>
+      <c r="I7">
+        <v>0.9284434546632696</v>
+      </c>
+      <c r="J7">
+        <v>0.9284434546632696</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.02498966666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.07496899999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="P7">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="Q7">
+        <v>3.060186824747</v>
+      </c>
+      <c r="R7">
+        <v>27.541681422723</v>
+      </c>
+      <c r="S7">
+        <v>0.02375599701453106</v>
+      </c>
+      <c r="T7">
+        <v>0.02375599701453106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.474194</v>
+      </c>
+      <c r="H8">
+        <v>1.422582</v>
+      </c>
+      <c r="I8">
+        <v>0.003595208116799817</v>
+      </c>
+      <c r="J8">
+        <v>0.003595208116799817</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2315733333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.69472</v>
+      </c>
+      <c r="O8">
+        <v>0.2371078251520917</v>
+      </c>
+      <c r="P8">
+        <v>0.2371078251520917</v>
+      </c>
+      <c r="Q8">
+        <v>0.1098106852266667</v>
+      </c>
+      <c r="R8">
+        <v>0.98829616704</v>
+      </c>
+      <c r="S8">
+        <v>0.000852451977543552</v>
+      </c>
+      <c r="T8">
+        <v>0.000852451977543552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.474194</v>
+      </c>
+      <c r="H9">
+        <v>1.422582</v>
+      </c>
+      <c r="I9">
+        <v>0.003595208116799817</v>
+      </c>
+      <c r="J9">
+        <v>0.003595208116799817</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7200953333333334</v>
+      </c>
+      <c r="N9">
+        <v>2.160286</v>
+      </c>
+      <c r="O9">
+        <v>0.7373052671097876</v>
+      </c>
+      <c r="P9">
+        <v>0.7373052671097876</v>
+      </c>
+      <c r="Q9">
+        <v>0.3414648864946667</v>
+      </c>
+      <c r="R9">
+        <v>3.073183978452</v>
+      </c>
+      <c r="S9">
+        <v>0.002650765880872366</v>
+      </c>
+      <c r="T9">
+        <v>0.002650765880872366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.474194</v>
+      </c>
+      <c r="H10">
+        <v>1.422582</v>
+      </c>
+      <c r="I10">
+        <v>0.003595208116799817</v>
+      </c>
+      <c r="J10">
+        <v>0.003595208116799817</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02498966666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.07496899999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="P10">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="Q10">
+        <v>0.01184994999533333</v>
+      </c>
+      <c r="R10">
+        <v>0.106649549958</v>
+      </c>
+      <c r="S10">
+        <v>9.199025838389932E-05</v>
+      </c>
+      <c r="T10">
+        <v>9.199025838389934E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.93822025454751</v>
-      </c>
-      <c r="H7">
-        <v>1.93822025454751</v>
-      </c>
-      <c r="I7">
-        <v>0.01564000286427167</v>
-      </c>
-      <c r="J7">
-        <v>0.01564000286427167</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.575904546607758</v>
-      </c>
-      <c r="N7">
-        <v>0.575904546607758</v>
-      </c>
-      <c r="O7">
-        <v>0.7219492966737807</v>
-      </c>
-      <c r="P7">
-        <v>0.7219492966737807</v>
-      </c>
-      <c r="Q7">
-        <v>1.116229856921157</v>
-      </c>
-      <c r="R7">
-        <v>1.116229856921157</v>
-      </c>
-      <c r="S7">
-        <v>0.01129128906783685</v>
-      </c>
-      <c r="T7">
-        <v>0.01129128906783685</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.465569666666667</v>
+      </c>
+      <c r="H11">
+        <v>16.396709</v>
+      </c>
+      <c r="I11">
+        <v>0.04143844171063926</v>
+      </c>
+      <c r="J11">
+        <v>0.04143844171063926</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2315733333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.69472</v>
+      </c>
+      <c r="O11">
+        <v>0.2371078251520917</v>
+      </c>
+      <c r="P11">
+        <v>0.2371078251520917</v>
+      </c>
+      <c r="Q11">
+        <v>1.265680186275556</v>
+      </c>
+      <c r="R11">
+        <v>11.39112167648</v>
+      </c>
+      <c r="S11">
+        <v>0.009825378791701398</v>
+      </c>
+      <c r="T11">
+        <v>0.009825378791701398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.465569666666667</v>
+      </c>
+      <c r="H12">
+        <v>16.396709</v>
+      </c>
+      <c r="I12">
+        <v>0.04143844171063926</v>
+      </c>
+      <c r="J12">
+        <v>0.04143844171063926</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.7200953333333334</v>
+      </c>
+      <c r="N12">
+        <v>2.160286</v>
+      </c>
+      <c r="O12">
+        <v>0.7373052671097876</v>
+      </c>
+      <c r="P12">
+        <v>0.7373052671097876</v>
+      </c>
+      <c r="Q12">
+        <v>3.93573121097489</v>
+      </c>
+      <c r="R12">
+        <v>35.421580898774</v>
+      </c>
+      <c r="S12">
+        <v>0.03055278133407625</v>
+      </c>
+      <c r="T12">
+        <v>0.03055278133407625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.465569666666667</v>
+      </c>
+      <c r="H13">
+        <v>16.396709</v>
+      </c>
+      <c r="I13">
+        <v>0.04143844171063926</v>
+      </c>
+      <c r="J13">
+        <v>0.04143844171063926</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.02498966666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.07496899999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="P13">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="Q13">
+        <v>0.1365827641134444</v>
+      </c>
+      <c r="R13">
+        <v>1.229244877021</v>
+      </c>
+      <c r="S13">
+        <v>0.001060281584861616</v>
+      </c>
+      <c r="T13">
+        <v>0.001060281584861616</v>
       </c>
     </row>
   </sheetData>
